--- a/individual_results/avey/171.xlsx
+++ b/individual_results/avey/171.xlsx
@@ -555,7 +555,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
         <v>0.4</v>
@@ -564,7 +564,7 @@
         <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>0.25</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N2" t="n">
         <v>0.3333333333333333</v>
@@ -597,13 +597,13 @@
         <v>0.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R2" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.6666666666666666</v>
@@ -637,7 +637,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0.3333333333333333</v>
@@ -670,25 +670,25 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -701,7 +701,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
@@ -710,13 +710,15 @@
         <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.4</v>
+      </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
@@ -727,7 +729,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="M4" t="n">
-        <v>0.25</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="N4" t="n">
         <v>0.3333333333333333</v>
@@ -739,22 +741,24 @@
         <v>0.7499999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="R4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="T4" t="n">
         <v>0.5</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -766,7 +770,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="n">
         <v>0.5882352941176471</v>
@@ -775,13 +779,15 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2777777777777777</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
@@ -792,7 +798,7 @@
         <v>0.3125</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="N5" t="n">
         <v>0.3333333333333333</v>
@@ -804,22 +810,24 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R5" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="T5" t="n">
         <v>0.3846153846153846</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -831,7 +839,7 @@
         <v>0.9467676761267002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.882808018370203</v>
       </c>
       <c r="D6" t="n">
         <v>0.8124242481930318</v>
@@ -840,7 +848,7 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4702019977678391</v>
+        <v>0.7895959410076381</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -849,7 +857,7 @@
         <v>0.8428282648809379</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.319393943239799</v>
       </c>
       <c r="J6" t="n">
         <v>0.8428282648809379</v>
@@ -861,7 +869,7 @@
         <v>0.319393943239799</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.9467676761267002</v>
       </c>
       <c r="N6" t="n">
         <v>0.4702019977678391</v>
@@ -873,13 +881,13 @@
         <v>0.5513678991091129</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.9467676761267002</v>
       </c>
       <c r="R6" t="n">
         <v>0.439797981079933</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3726262671130988</v>
+        <v>0.6920202103528978</v>
       </c>
       <c r="T6" t="n">
         <v>0.7452525342261976</v>
@@ -891,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.319393943239799</v>
       </c>
     </row>
     <row r="7">
@@ -1186,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>1.666666666666667</v>
@@ -1195,14 +1203,14 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1214,7 +1222,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M11" t="n">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1226,25 +1234,25 @@
         <v>1.666666666666667</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/individual_results/avey/171.xlsx
+++ b/individual_results/avey/171.xlsx
@@ -561,7 +561,7 @@
         <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
         <v>0.3333333333333333</v>
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2857142857142857</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W2" t="n">
         <v>0.3333333333333333</v>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
         <v>0.5</v>
@@ -652,19 +652,19 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -673,19 +673,19 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="U3" t="n">
         <v>0.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W3" t="n">
         <v>0.5</v>
@@ -698,64 +698,66 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="F4" t="n">
         <v>0.5</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
         <v>0.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4" t="n">
         <v>0.5714285714285715</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="Q4" t="n">
         <v>0.4444444444444445</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="S4" t="n">
         <v>0.8</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>0.4</v>
+      </c>
       <c r="W4" t="n">
         <v>0.4</v>
       </c>
@@ -767,64 +769,66 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="F5" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
         <v>0.4545454545454545</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M5" t="n">
         <v>0.7692307692307692</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="Q5" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="S5" t="n">
         <v>0.9090909090909091</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="U5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
       <c r="W5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -836,70 +840,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9467676761267002</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.882808018370203</v>
+        <v>0.944847956559586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8124242481930318</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7452525342261976</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7895959410076381</v>
+        <v>0.7967075809905066</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8428282648809379</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="I6" t="n">
-        <v>0.319393943239799</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8428282648809379</v>
+        <v>0.7967075809905066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="L6" t="n">
-        <v>0.319393943239799</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9467676761267002</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4702019977678391</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5513678991091129</v>
+        <v>0.531730627995306</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9467676761267002</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0.439797981079933</v>
+        <v>0.6885288809404666</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6920202103528978</v>
+        <v>0.6885288809404666</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7452525342261976</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="W6" t="n">
-        <v>0.319393943239799</v>
+        <v>0.2754115523761866</v>
       </c>
     </row>
     <row r="7">
@@ -1000,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1073,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1143,9 +1147,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>2</v>
@@ -1191,16 +1193,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
@@ -1213,43 +1215,43 @@
         <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>2.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>3.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="U11" t="n">
         <v>0.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
         <v>1.5</v>
